--- a/Brahma-Model.xlsx
+++ b/Brahma-Model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="99">
   <si>
     <t>ID</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>BRMA &amp; BRG1 &amp; !BMPSI =&gt; CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Default values: reaction weight (W)=1, n=1.4, EC50=0.5. We used lower W for reactions r10,r13,r14 to prevent oversaturation of components activity in model.</t>
+  </si>
+  <si>
+    <t>Default values: Yinit=0, Ymax=1</t>
   </si>
 </sst>
 </file>
@@ -718,7 +724,7 @@
   <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +791,9 @@
       <c r="G3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H3"/>
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1391,7 +1399,7 @@
   <dimension ref="A1:G164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,7 +1459,9 @@
       <c r="F3">
         <v>0.5</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
